--- a/7/1/1/1/5/Series originales 2013 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/5/Series originales 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Serie</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>01-03-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -761,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE100"/>
+  <dimension ref="A1:AE103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9987,28 +9996,28 @@
         <v>127</v>
       </c>
       <c r="B98">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C98">
         <v>57</v>
       </c>
       <c r="D98">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="E98">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F98">
         <v>128</v>
       </c>
       <c r="G98">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="H98">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I98">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J98">
         <v>29</v>
@@ -10020,10 +10029,10 @@
         <v>94</v>
       </c>
       <c r="M98">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N98">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O98">
         <v>76</v>
@@ -10032,49 +10041,49 @@
         <v>218</v>
       </c>
       <c r="Q98">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R98">
         <v>634</v>
       </c>
       <c r="S98">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T98">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U98">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V98">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="W98">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X98">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Y98">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="Z98">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AA98">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AB98">
-        <v>11174</v>
+        <v>11173</v>
       </c>
       <c r="AC98">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AD98">
         <v>52</v>
       </c>
       <c r="AE98">
-        <v>12266</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -10082,28 +10091,28 @@
         <v>128</v>
       </c>
       <c r="B99">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="C99">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D99">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="E99">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F99">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G99">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="H99">
         <v>353</v>
       </c>
       <c r="I99">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J99">
         <v>27</v>
@@ -10115,7 +10124,7 @@
         <v>85</v>
       </c>
       <c r="M99">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N99">
         <v>208</v>
@@ -10127,49 +10136,49 @@
         <v>210</v>
       </c>
       <c r="Q99">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R99">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S99">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="T99">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U99">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V99">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="W99">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X99">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="Y99">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="Z99">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AA99">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AB99">
-        <v>10874</v>
+        <v>10885</v>
       </c>
       <c r="AC99">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="AD99">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE99">
-        <v>11961</v>
+        <v>11968</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -10177,40 +10186,40 @@
         <v>129</v>
       </c>
       <c r="B100">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="C100">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100">
-        <v>1270</v>
+        <v>1280</v>
       </c>
       <c r="E100">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="F100">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G100">
-        <v>1436</v>
+        <v>1456</v>
       </c>
       <c r="H100">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I100">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J100">
         <v>32</v>
       </c>
       <c r="K100">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L100">
         <v>99</v>
       </c>
       <c r="M100">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N100">
         <v>220</v>
@@ -10222,49 +10231,334 @@
         <v>247</v>
       </c>
       <c r="Q100">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R100">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="S100">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="T100">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="U100">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="V100">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="W100">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="X100">
-        <v>1240</v>
+        <v>1249</v>
       </c>
       <c r="Y100">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="Z100">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AA100">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AB100">
-        <v>12536</v>
+        <v>12603</v>
       </c>
       <c r="AC100">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="AD100">
         <v>87</v>
       </c>
       <c r="AE100">
-        <v>13784</v>
+        <v>13843</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101">
+        <v>378</v>
+      </c>
+      <c r="C101">
+        <v>93</v>
+      </c>
+      <c r="D101">
+        <v>1240</v>
+      </c>
+      <c r="E101">
+        <v>1111</v>
+      </c>
+      <c r="F101">
+        <v>128</v>
+      </c>
+      <c r="G101">
+        <v>1373</v>
+      </c>
+      <c r="H101">
+        <v>380</v>
+      </c>
+      <c r="I101">
+        <v>193</v>
+      </c>
+      <c r="J101">
+        <v>28</v>
+      </c>
+      <c r="K101">
+        <v>72</v>
+      </c>
+      <c r="L101">
+        <v>92</v>
+      </c>
+      <c r="M101">
+        <v>79</v>
+      </c>
+      <c r="N101">
+        <v>211</v>
+      </c>
+      <c r="O101">
+        <v>84</v>
+      </c>
+      <c r="P101">
+        <v>237</v>
+      </c>
+      <c r="Q101">
+        <v>331</v>
+      </c>
+      <c r="R101">
+        <v>699</v>
+      </c>
+      <c r="S101">
+        <v>1297</v>
+      </c>
+      <c r="T101">
+        <v>177</v>
+      </c>
+      <c r="U101">
+        <v>504</v>
+      </c>
+      <c r="V101">
+        <v>469</v>
+      </c>
+      <c r="W101">
+        <v>729</v>
+      </c>
+      <c r="X101">
+        <v>1298</v>
+      </c>
+      <c r="Y101">
+        <v>962</v>
+      </c>
+      <c r="Z101">
+        <v>1678</v>
+      </c>
+      <c r="AA101">
+        <v>632</v>
+      </c>
+      <c r="AB101">
+        <v>11863</v>
+      </c>
+      <c r="AC101">
+        <v>1040</v>
+      </c>
+      <c r="AD101">
+        <v>59</v>
+      </c>
+      <c r="AE101">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102">
+        <v>279</v>
+      </c>
+      <c r="C102">
+        <v>102</v>
+      </c>
+      <c r="D102">
+        <v>1271</v>
+      </c>
+      <c r="E102">
+        <v>1133</v>
+      </c>
+      <c r="F102">
+        <v>138</v>
+      </c>
+      <c r="G102">
+        <v>1387</v>
+      </c>
+      <c r="H102">
+        <v>358</v>
+      </c>
+      <c r="I102">
+        <v>206</v>
+      </c>
+      <c r="J102">
+        <v>32</v>
+      </c>
+      <c r="K102">
+        <v>75</v>
+      </c>
+      <c r="L102">
+        <v>98</v>
+      </c>
+      <c r="M102">
+        <v>93</v>
+      </c>
+      <c r="N102">
+        <v>198</v>
+      </c>
+      <c r="O102">
+        <v>82</v>
+      </c>
+      <c r="P102">
+        <v>243</v>
+      </c>
+      <c r="Q102">
+        <v>365</v>
+      </c>
+      <c r="R102">
+        <v>736</v>
+      </c>
+      <c r="S102">
+        <v>1404</v>
+      </c>
+      <c r="T102">
+        <v>212</v>
+      </c>
+      <c r="U102">
+        <v>523</v>
+      </c>
+      <c r="V102">
+        <v>489</v>
+      </c>
+      <c r="W102">
+        <v>746</v>
+      </c>
+      <c r="X102">
+        <v>1291</v>
+      </c>
+      <c r="Y102">
+        <v>963</v>
+      </c>
+      <c r="Z102">
+        <v>1733</v>
+      </c>
+      <c r="AA102">
+        <v>636</v>
+      </c>
+      <c r="AB102">
+        <v>12128</v>
+      </c>
+      <c r="AC102">
+        <v>1219</v>
+      </c>
+      <c r="AD102">
+        <v>51</v>
+      </c>
+      <c r="AE102">
+        <v>13392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103">
+        <v>213</v>
+      </c>
+      <c r="C103">
+        <v>76</v>
+      </c>
+      <c r="D103">
+        <v>1264</v>
+      </c>
+      <c r="E103">
+        <v>1124</v>
+      </c>
+      <c r="F103">
+        <v>140</v>
+      </c>
+      <c r="G103">
+        <v>1385</v>
+      </c>
+      <c r="H103">
+        <v>352</v>
+      </c>
+      <c r="I103">
+        <v>201</v>
+      </c>
+      <c r="J103">
+        <v>29</v>
+      </c>
+      <c r="K103">
+        <v>73</v>
+      </c>
+      <c r="L103">
+        <v>97</v>
+      </c>
+      <c r="M103">
+        <v>98</v>
+      </c>
+      <c r="N103">
+        <v>206</v>
+      </c>
+      <c r="O103">
+        <v>82</v>
+      </c>
+      <c r="P103">
+        <v>246</v>
+      </c>
+      <c r="Q103">
+        <v>378</v>
+      </c>
+      <c r="R103">
+        <v>725</v>
+      </c>
+      <c r="S103">
+        <v>1365</v>
+      </c>
+      <c r="T103">
+        <v>222</v>
+      </c>
+      <c r="U103">
+        <v>538</v>
+      </c>
+      <c r="V103">
+        <v>469</v>
+      </c>
+      <c r="W103">
+        <v>749</v>
+      </c>
+      <c r="X103">
+        <v>1313</v>
+      </c>
+      <c r="Y103">
+        <v>977</v>
+      </c>
+      <c r="Z103">
+        <v>1765</v>
+      </c>
+      <c r="AA103">
+        <v>636</v>
+      </c>
+      <c r="AB103">
+        <v>12075</v>
+      </c>
+      <c r="AC103">
+        <v>1195</v>
+      </c>
+      <c r="AD103">
+        <v>55</v>
+      </c>
+      <c r="AE103">
+        <v>13320</v>
       </c>
     </row>
   </sheetData>
